--- a/01.xlsx
+++ b/01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\サンプル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC75428-74B1-4E83-81C3-D45B02F889D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088B4CD7-2F9C-4F3D-981C-19D09F5A4F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6713" yWindow="712" windowWidth="28215" windowHeight="15098" xr2:uid="{615CB470-4B48-4322-9452-886F03802E02}"/>
+    <workbookView xWindow="683" yWindow="-98" windowWidth="37815" windowHeight="20701" xr2:uid="{615CB470-4B48-4322-9452-886F03802E02}"/>
   </bookViews>
   <sheets>
     <sheet name="二項検定" sheetId="3" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
   <si>
     <t>表の回数</t>
     <rPh sb="0" eb="1">
@@ -98,22 +98,6 @@
   </si>
   <si>
     <t>p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20回以上表の確率</t>
-    <rPh sb="2" eb="3">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>オモテ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクリツ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -265,14 +249,30 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>43回以上表の確率</t>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オモテ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="180" formatCode="0.0000"/>
-    <numFmt numFmtId="181" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -409,16 +409,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -512,7 +512,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10554759001567252"/>
+          <c:y val="0.14315617844604867"/>
+          <c:w val="0.87065316947522498"/>
+          <c:h val="0.78064020979728832"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -542,7 +552,321 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="20"/>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-04E6-468A-AD0A-C46E067A7BD1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-04E6-468A-AD0A-C46E067A7BD1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-04E6-468A-AD0A-C46E067A7BD1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-04E6-468A-AD0A-C46E067A7BD1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-04E6-468A-AD0A-C46E067A7BD1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-04E6-468A-AD0A-C46E067A7BD1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-04E6-468A-AD0A-C46E067A7BD1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-04E6-468A-AD0A-C46E067A7BD1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-04E6-468A-AD0A-C46E067A7BD1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-04E6-468A-AD0A-C46E067A7BD1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-04E6-468A-AD0A-C46E067A7BD1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="28"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-04E6-468A-AD0A-C46E067A7BD1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="29"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-04E6-468A-AD0A-C46E067A7BD1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="30"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-04E6-468A-AD0A-C46E067A7BD1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="31"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-04E6-468A-AD0A-C46E067A7BD1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="32"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-04E6-468A-AD0A-C46E067A7BD1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="33"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -556,12 +880,12 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-E96A-4BDF-BDD3-720EAE921A24}"/>
+                <c16:uniqueId val="{00000021-04E6-468A-AD0A-C46E067A7BD1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="21"/>
+            <c:idx val="34"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -569,18 +893,20 @@
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-E96A-4BDF-BDD3-720EAE921A24}"/>
+                <c16:uniqueId val="{00000023-04E6-468A-AD0A-C46E067A7BD1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="22"/>
+            <c:idx val="35"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -588,18 +914,20 @@
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-E96A-4BDF-BDD3-720EAE921A24}"/>
+                <c16:uniqueId val="{00000025-04E6-468A-AD0A-C46E067A7BD1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="23"/>
+            <c:idx val="36"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -607,18 +935,20 @@
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-E96A-4BDF-BDD3-720EAE921A24}"/>
+                <c16:uniqueId val="{00000027-04E6-468A-AD0A-C46E067A7BD1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="24"/>
+            <c:idx val="37"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -626,18 +956,20 @@
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-E96A-4BDF-BDD3-720EAE921A24}"/>
+                <c16:uniqueId val="{00000029-04E6-468A-AD0A-C46E067A7BD1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="25"/>
+            <c:idx val="38"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -645,18 +977,20 @@
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-E96A-4BDF-BDD3-720EAE921A24}"/>
+                <c16:uniqueId val="{0000002B-04E6-468A-AD0A-C46E067A7BD1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="26"/>
+            <c:idx val="39"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -664,18 +998,20 @@
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-E96A-4BDF-BDD3-720EAE921A24}"/>
+                <c16:uniqueId val="{0000002D-04E6-468A-AD0A-C46E067A7BD1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="27"/>
+            <c:idx val="40"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -683,280 +1019,285 @@
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-E96A-4BDF-BDD3-720EAE921A24}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="28"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-E96A-4BDF-BDD3-720EAE921A24}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="29"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-E96A-4BDF-BDD3-720EAE921A24}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="30"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-E96A-4BDF-BDD3-720EAE921A24}"/>
+                <c16:uniqueId val="{0000002F-04E6-468A-AD0A-C46E067A7BD1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>二項検定!$A$6:$A$36</c:f>
+              <c:f>二項検定!$A$21:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>二項検定!$B$6:$B$36</c:f>
+              <c:f>二項検定!$B$21:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>9.3132257461547934E-10</c:v>
+                  <c:v>6.1111791732220016E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7939677238464359E-8</c:v>
+                  <c:v>2.1007178407950581E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0512531995773342E-7</c:v>
+                  <c:v>6.6728684354666703E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.781169652938836E-6</c:v>
+                  <c:v>1.9647890393318588E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5522895157337233E-5</c:v>
+                  <c:v>5.3773173708029584E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3271905481815344E-4</c:v>
+                  <c:v>1.3712159295547541E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5299606174230467E-4</c:v>
+                  <c:v>3.2647998322732379E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8959864974021896E-3</c:v>
+                  <c:v>7.271599626426724E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.4509611800313048E-3</c:v>
+                  <c:v>1.5175512263847126E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3324571773409849E-2</c:v>
+                  <c:v>2.9718711516700533E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7981600724160692E-2</c:v>
+                  <c:v>5.4682429190729123E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.0875637680292116E-2</c:v>
+                  <c:v>9.4642665907031086E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.0553092993795886E-2</c:v>
+                  <c:v>1.5423249258923537E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1115350518375635</c:v>
+                  <c:v>2.3685704219061209E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.13543542008847004</c:v>
+                  <c:v>3.4303433696571364E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.14446444809436798</c:v>
+                  <c:v>4.6881359385314139E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.13543542008847004</c:v>
+                  <c:v>6.0492076626211894E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1115350518375635</c:v>
+                  <c:v>7.372471838819572E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.0553092993795886E-2</c:v>
+                  <c:v>8.4895130265195073E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.0875637680292116E-2</c:v>
+                  <c:v>9.2385877053300508E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.7981600724160689E-2</c:v>
+                  <c:v>9.5025473540537697E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.3324571773409843E-2</c:v>
+                  <c:v>9.2385877053300508E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.4509611800313022E-3</c:v>
+                  <c:v>8.4895130265195073E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.8959864974021896E-3</c:v>
+                  <c:v>7.372471838819572E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.5299606174230467E-4</c:v>
+                  <c:v>6.0492076626211894E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.3271905481815344E-4</c:v>
+                  <c:v>4.6881359385314139E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.5522895157337233E-5</c:v>
+                  <c:v>3.4303433696571364E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.781169652938836E-6</c:v>
+                  <c:v>2.3685704219061209E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.0512531995773411E-7</c:v>
+                  <c:v>1.5423249258923537E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.7939677238464359E-8</c:v>
+                  <c:v>9.4642665907031086E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9.3132257461547934E-10</c:v>
+                  <c:v>5.4682429190729123E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.971871151670052E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.5175512263847126E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.271599626426724E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.2647998322732379E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.3712159295547541E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.3773173708029577E-5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.9647890393318551E-5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.6728684354666703E-6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.1007178407950581E-6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.1111791732220016E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-E96A-4BDF-BDD3-720EAE921A24}"/>
+              <c16:uniqueId val="{00000031-D75E-4F29-843C-5112B3A888D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -968,7 +1309,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="80"/>
+        <c:gapWidth val="30"/>
         <c:overlap val="-30"/>
         <c:axId val="1935825632"/>
         <c:axId val="1935809312"/>
@@ -1022,12 +1363,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1935809312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1203,13 +1546,23 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10554759001567252"/>
+          <c:y val="0.14315617844604867"/>
+          <c:w val="0.87065316947522498"/>
+          <c:h val="0.78064020979728832"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -1233,7 +1586,321 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="20"/>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5358-408A-B2E2-FB6D846E8E1A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5358-408A-B2E2-FB6D846E8E1A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5358-408A-B2E2-FB6D846E8E1A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-5358-408A-B2E2-FB6D846E8E1A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-5358-408A-B2E2-FB6D846E8E1A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-5358-408A-B2E2-FB6D846E8E1A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-5358-408A-B2E2-FB6D846E8E1A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-5358-408A-B2E2-FB6D846E8E1A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-5358-408A-B2E2-FB6D846E8E1A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-5358-408A-B2E2-FB6D846E8E1A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-5358-408A-B2E2-FB6D846E8E1A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="28"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000024-E8A3-469B-AA91-3E26359F94BC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="29"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-E8A3-469B-AA91-3E26359F94BC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="30"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000026-E8A3-469B-AA91-3E26359F94BC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="31"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-5358-408A-B2E2-FB6D846E8E1A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="32"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-5358-408A-B2E2-FB6D846E8E1A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="33"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1247,12 +1914,12 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-0871-45FF-A28C-A7110740F1D3}"/>
+                <c16:uniqueId val="{00000021-5358-408A-B2E2-FB6D846E8E1A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="21"/>
+            <c:idx val="34"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1260,18 +1927,20 @@
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-0871-45FF-A28C-A7110740F1D3}"/>
+                <c16:uniqueId val="{00000023-5358-408A-B2E2-FB6D846E8E1A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="22"/>
+            <c:idx val="35"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1279,18 +1948,20 @@
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-0871-45FF-A28C-A7110740F1D3}"/>
+                <c16:uniqueId val="{00000025-5358-408A-B2E2-FB6D846E8E1A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="23"/>
+            <c:idx val="36"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1298,18 +1969,20 @@
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-0871-45FF-A28C-A7110740F1D3}"/>
+                <c16:uniqueId val="{00000027-5358-408A-B2E2-FB6D846E8E1A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="24"/>
+            <c:idx val="37"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1317,18 +1990,20 @@
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-0871-45FF-A28C-A7110740F1D3}"/>
+                <c16:uniqueId val="{00000029-5358-408A-B2E2-FB6D846E8E1A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="25"/>
+            <c:idx val="38"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1336,18 +2011,20 @@
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000008-0871-45FF-A28C-A7110740F1D3}"/>
+                <c16:uniqueId val="{0000002B-5358-408A-B2E2-FB6D846E8E1A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="26"/>
+            <c:idx val="39"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1355,18 +2032,20 @@
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-0871-45FF-A28C-A7110740F1D3}"/>
+                <c16:uniqueId val="{0000002D-5358-408A-B2E2-FB6D846E8E1A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="27"/>
+            <c:idx val="40"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1374,280 +2053,285 @@
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-0871-45FF-A28C-A7110740F1D3}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="28"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000A-0871-45FF-A28C-A7110740F1D3}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="29"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-0871-45FF-A28C-A7110740F1D3}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="30"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000C-0871-45FF-A28C-A7110740F1D3}"/>
+                <c16:uniqueId val="{0000002F-5358-408A-B2E2-FB6D846E8E1A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>'二項検定 (完成例)'!$A$6:$A$36</c:f>
+              <c:f>'二項検定 (完成例)'!$A$21:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'二項検定 (完成例)'!$B$6:$B$36</c:f>
+              <c:f>'二項検定 (完成例)'!$B$21:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>9.3132257461547934E-10</c:v>
+                  <c:v>6.1111791732220016E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7939677238464359E-8</c:v>
+                  <c:v>2.1007178407950581E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0512531995773342E-7</c:v>
+                  <c:v>6.6728684354666703E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.781169652938836E-6</c:v>
+                  <c:v>1.9647890393318588E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5522895157337233E-5</c:v>
+                  <c:v>5.3773173708029584E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3271905481815344E-4</c:v>
+                  <c:v>1.3712159295547541E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5299606174230467E-4</c:v>
+                  <c:v>3.2647998322732379E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8959864974021896E-3</c:v>
+                  <c:v>7.271599626426724E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.4509611800313048E-3</c:v>
+                  <c:v>1.5175512263847126E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3324571773409849E-2</c:v>
+                  <c:v>2.9718711516700533E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7981600724160692E-2</c:v>
+                  <c:v>5.4682429190729123E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.0875637680292116E-2</c:v>
+                  <c:v>9.4642665907031086E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.0553092993795886E-2</c:v>
+                  <c:v>1.5423249258923537E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1115350518375635</c:v>
+                  <c:v>2.3685704219061209E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.13543542008847004</c:v>
+                  <c:v>3.4303433696571364E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.14446444809436798</c:v>
+                  <c:v>4.6881359385314139E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.13543542008847004</c:v>
+                  <c:v>6.0492076626211894E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1115350518375635</c:v>
+                  <c:v>7.372471838819572E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.0553092993795886E-2</c:v>
+                  <c:v>8.4895130265195073E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.0875637680292116E-2</c:v>
+                  <c:v>9.2385877053300508E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.7981600724160689E-2</c:v>
+                  <c:v>9.5025473540537697E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.3324571773409843E-2</c:v>
+                  <c:v>9.2385877053300508E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.4509611800313022E-3</c:v>
+                  <c:v>8.4895130265195073E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.8959864974021896E-3</c:v>
+                  <c:v>7.372471838819572E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.5299606174230467E-4</c:v>
+                  <c:v>6.0492076626211894E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.3271905481815344E-4</c:v>
+                  <c:v>4.6881359385314139E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.5522895157337233E-5</c:v>
+                  <c:v>3.4303433696571364E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.781169652938836E-6</c:v>
+                  <c:v>2.3685704219061209E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.0512531995773411E-7</c:v>
+                  <c:v>1.5423249258923537E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.7939677238464359E-8</c:v>
+                  <c:v>9.4642665907031086E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9.3132257461547934E-10</c:v>
+                  <c:v>5.4682429190729123E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.971871151670052E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.5175512263847126E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.271599626426724E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.2647998322732379E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.3712159295547541E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.3773173708029577E-5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.9647890393318551E-5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.6728684354666703E-6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.1007178407950581E-6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.1111791732220016E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0871-45FF-A28C-A7110740F1D3}"/>
+              <c16:uniqueId val="{00000016-E8A3-469B-AA91-3E26359F94BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1659,7 +2343,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="80"/>
+        <c:gapWidth val="30"/>
         <c:overlap val="-30"/>
         <c:axId val="1935825632"/>
         <c:axId val="1935809312"/>
@@ -1713,12 +2397,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1935809312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2914,22 +3600,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>23811</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1">
+        <xdr:cNvPr id="3" name="グラフ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34A1A179-5E9A-434C-922A-2F7D4ED98665}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A91D9ED-BA78-4A03-B80D-A8D980822355}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2957,15 +3643,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>14286</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3310,7 +3996,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E140643-0E98-4559-A54A-BBDFFB77DBD7}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -3324,7 +4010,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="8"/>
@@ -3335,7 +4021,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="5">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -3355,21 +4041,21 @@
         <v>2</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A6" cm="1">
-        <f t="array" ref="A6:A36">_xlfn.SEQUENCE(31,1,0,1)</f>
+        <f t="array" ref="A6:A76">_xlfn.SEQUENCE(71,1,0,1)</f>
         <v>0</v>
       </c>
       <c r="B6" cm="1">
-        <f t="array" ref="B6:B36">_xlfn.BINOM.DIST(A6:A36,B3,D3,FALSE)</f>
-        <v>9.3132257461547934E-10</v>
+        <f t="array" ref="B6:B76">_xlfn.BINOM.DIST(A6:A76,B3,D3,FALSE)</f>
+        <v>8.470329472543041E-22</v>
       </c>
       <c r="C6" cm="1">
-        <f t="array" ref="C6:C36">_xlfn.BINOM.DIST(A6:A36,B3,D3,TRUE)</f>
-        <v>9.3132257461547934E-10</v>
+        <f t="array" ref="C6:C76">_xlfn.BINOM.DIST(A6:A76,B3,D3,TRUE)</f>
+        <v>8.470329472543041E-22</v>
       </c>
       <c r="E6" s="13"/>
     </row>
@@ -3378,10 +4064,10 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>2.7939677238464359E-8</v>
+        <v>5.9292306307801084E-20</v>
       </c>
       <c r="C7">
-        <v>2.8870999813079864E-8</v>
+        <v>6.0139339255055408E-20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.7">
@@ -3389,10 +4075,10 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>4.0512531995773342E-7</v>
+        <v>2.0455845676191322E-18</v>
       </c>
       <c r="C8">
-        <v>4.3399631977081267E-7</v>
+        <v>2.1057239068741972E-18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.7">
@@ -3400,10 +4086,10 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>3.781169652938836E-6</v>
+        <v>4.6366583532700222E-17</v>
       </c>
       <c r="C9">
-        <v>4.2151659727096608E-6</v>
+        <v>4.8472307439574807E-17</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.7">
@@ -3411,10 +4097,10 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>2.5522895157337233E-5</v>
+        <v>7.766402741727325E-16</v>
       </c>
       <c r="C10">
-        <v>2.9738061130046844E-5</v>
+        <v>8.2511258161230591E-16</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.7">
@@ -3422,10 +4108,10 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>1.3271905481815344E-4</v>
+        <v>1.0251651619080055E-14</v>
       </c>
       <c r="C11">
-        <v>1.6245711594820044E-4</v>
+        <v>1.1076764200692381E-14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.7">
@@ -3433,10 +4119,10 @@
         <v>6</v>
       </c>
       <c r="B12">
-        <v>5.5299606174230467E-4</v>
+        <v>1.1105955920670159E-13</v>
       </c>
       <c r="C12">
-        <v>7.1545317769050587E-4</v>
+        <v>1.2213632340739335E-13</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.7">
@@ -3444,10 +4130,10 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>1.8959864974021896E-3</v>
+        <v>1.015401684175543E-12</v>
       </c>
       <c r="C13">
-        <v>2.611439675092698E-3</v>
+        <v>1.13753800758294E-12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.7">
@@ -3455,10 +4141,10 @@
         <v>8</v>
       </c>
       <c r="B14">
-        <v>5.4509611800313048E-3</v>
+        <v>7.9962882628824618E-12</v>
       </c>
       <c r="C14">
-        <v>8.0624008551239985E-3</v>
+        <v>9.1338262704653873E-12</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.7">
@@ -3466,10 +4152,10 @@
         <v>9</v>
       </c>
       <c r="B15">
-        <v>1.3324571773409849E-2</v>
+        <v>5.5085541366523398E-11</v>
       </c>
       <c r="C15">
-        <v>2.1386972628533851E-2</v>
+        <v>6.4219367636989044E-11</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.7">
@@ -3477,10 +4163,10 @@
         <v>10</v>
       </c>
       <c r="B16">
-        <v>2.7981600724160692E-2</v>
+        <v>3.3602180233579525E-10</v>
       </c>
       <c r="C16">
-        <v>4.9368573352694511E-2</v>
+        <v>4.0024116997278369E-10</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.7">
@@ -3488,10 +4174,10 @@
         <v>11</v>
       </c>
       <c r="B17">
-        <v>5.0875637680292116E-2</v>
+        <v>1.8328461945588735E-9</v>
       </c>
       <c r="C17">
-        <v>0.10024421103298661</v>
+        <v>2.2330873645316532E-9</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.7">
@@ -3499,10 +4185,10 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>8.0553092993795886E-2</v>
+        <v>9.0114937899144538E-9</v>
       </c>
       <c r="C18">
-        <v>0.18079730402678254</v>
+        <v>1.1244581154446114E-8</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.7">
@@ -3510,10 +4196,10 @@
         <v>13</v>
       </c>
       <c r="B19">
-        <v>0.1115350518375635</v>
+        <v>4.0205126139618415E-8</v>
       </c>
       <c r="C19">
-        <v>0.29233235586434619</v>
+        <v>5.144970729406463E-8</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.7">
@@ -3521,10 +4207,10 @@
         <v>14</v>
       </c>
       <c r="B20">
-        <v>0.13543542008847004</v>
+        <v>1.6369229928273095E-7</v>
       </c>
       <c r="C20">
-        <v>0.42776777595281623</v>
+        <v>2.1514200657679744E-7</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.7">
@@ -3532,10 +4218,10 @@
         <v>15</v>
       </c>
       <c r="B21">
-        <v>0.14446444809436798</v>
+        <v>6.1111791732220016E-7</v>
       </c>
       <c r="C21">
-        <v>0.57223222404718377</v>
+        <v>8.2625992389899516E-7</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.7">
@@ -3543,10 +4229,10 @@
         <v>16</v>
       </c>
       <c r="B22">
-        <v>0.13543542008847004</v>
+        <v>2.1007178407950581E-6</v>
       </c>
       <c r="C22">
-        <v>0.70766764413565375</v>
+        <v>2.9269777646940583E-6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.7">
@@ -3554,10 +4240,10 @@
         <v>17</v>
       </c>
       <c r="B23">
-        <v>0.1115350518375635</v>
+        <v>6.6728684354666703E-6</v>
       </c>
       <c r="C23">
-        <v>0.81920269597321749</v>
+        <v>9.5998462001607379E-6</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.7">
@@ -3565,10 +4251,10 @@
         <v>18</v>
       </c>
       <c r="B24">
-        <v>8.0553092993795886E-2</v>
+        <v>1.9647890393318588E-5</v>
       </c>
       <c r="C24">
-        <v>0.89975578896701336</v>
+        <v>2.9247736593479357E-5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.7">
@@ -3576,10 +4262,10 @@
         <v>19</v>
       </c>
       <c r="B25">
-        <v>5.0875637680292116E-2</v>
+        <v>5.3773173708029584E-5</v>
       </c>
       <c r="C25">
-        <v>0.95063142664730549</v>
+        <v>8.3020910301508747E-5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.7">
@@ -3587,10 +4273,10 @@
         <v>20</v>
       </c>
       <c r="B26">
-        <v>2.7981600724160689E-2</v>
+        <v>1.3712159295547541E-4</v>
       </c>
       <c r="C26">
-        <v>0.97861302737146616</v>
+        <v>2.2014250325698439E-4</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.7">
@@ -3598,10 +4284,10 @@
         <v>21</v>
       </c>
       <c r="B27">
-        <v>1.3324571773409843E-2</v>
+        <v>3.2647998322732379E-4</v>
       </c>
       <c r="C27">
-        <v>0.991937599144876</v>
+        <v>5.466224864843081E-4</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.7">
@@ -3609,10 +4295,10 @@
         <v>22</v>
       </c>
       <c r="B28">
-        <v>5.4509611800313022E-3</v>
+        <v>7.271599626426724E-4</v>
       </c>
       <c r="C28">
-        <v>0.9973885603249073</v>
+        <v>1.2737824491269774E-3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.7">
@@ -3620,10 +4306,10 @@
         <v>23</v>
       </c>
       <c r="B29">
-        <v>1.8959864974021896E-3</v>
+        <v>1.5175512263847126E-3</v>
       </c>
       <c r="C29">
-        <v>0.99928454682230949</v>
+        <v>2.7913336755116844E-3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.7">
@@ -3631,10 +4317,10 @@
         <v>24</v>
       </c>
       <c r="B30">
-        <v>5.5299606174230467E-4</v>
+        <v>2.9718711516700533E-3</v>
       </c>
       <c r="C30">
-        <v>0.9998375428840518</v>
+        <v>5.7632048271817485E-3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.7">
@@ -3642,10 +4328,10 @@
         <v>25</v>
       </c>
       <c r="B31">
-        <v>1.3271905481815344E-4</v>
+        <v>5.4682429190729123E-3</v>
       </c>
       <c r="C31">
-        <v>0.99997026193886995</v>
+        <v>1.123144774625465E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.7">
@@ -3653,10 +4339,10 @@
         <v>26</v>
       </c>
       <c r="B32">
-        <v>2.5522895157337233E-5</v>
+        <v>9.4642665907031086E-3</v>
       </c>
       <c r="C32">
-        <v>0.99999578483402729</v>
+        <v>2.0695714336957747E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.7">
@@ -3664,10 +4350,10 @@
         <v>27</v>
       </c>
       <c r="B33">
-        <v>3.781169652938836E-6</v>
+        <v>1.5423249258923537E-2</v>
       </c>
       <c r="C33">
-        <v>0.99999956600368023</v>
+        <v>3.6118963595881307E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.7">
@@ -3675,10 +4361,10 @@
         <v>28</v>
       </c>
       <c r="B34">
-        <v>4.0512531995773411E-7</v>
+        <v>2.3685704219061209E-2</v>
       </c>
       <c r="C34">
-        <v>0.99999997112900019</v>
+        <v>5.9804667814942584E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.7">
@@ -3686,20 +4372,460 @@
         <v>29</v>
       </c>
       <c r="B35">
-        <v>2.7939677238464359E-8</v>
+        <v>3.4303433696571364E-2</v>
       </c>
       <c r="C35">
-        <v>0.99999999906867743</v>
+        <v>9.4108101511513872E-2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A36" s="6">
+      <c r="A36">
         <v>30</v>
       </c>
-      <c r="B36" s="6">
-        <v>9.3132257461547934E-10</v>
-      </c>
-      <c r="C36" s="6">
+      <c r="B36">
+        <v>4.6881359385314139E-2</v>
+      </c>
+      <c r="C36">
+        <v>0.14098946089682829</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A37">
+        <v>31</v>
+      </c>
+      <c r="B37">
+        <v>6.0492076626211894E-2</v>
+      </c>
+      <c r="C37">
+        <v>0.20148153752303988</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A38">
+        <v>32</v>
+      </c>
+      <c r="B38">
+        <v>7.372471838819572E-2</v>
+      </c>
+      <c r="C38">
+        <v>0.27520625591123604</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A39">
+        <v>33</v>
+      </c>
+      <c r="B39">
+        <v>8.4895130265195073E-2</v>
+      </c>
+      <c r="C39">
+        <v>0.36010138617643062</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A40">
+        <v>34</v>
+      </c>
+      <c r="B40">
+        <v>9.2385877053300508E-2</v>
+      </c>
+      <c r="C40">
+        <v>0.45248726322973204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A41">
+        <v>35</v>
+      </c>
+      <c r="B41">
+        <v>9.5025473540537697E-2</v>
+      </c>
+      <c r="C41">
+        <v>0.5475127367702679</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A42">
+        <v>36</v>
+      </c>
+      <c r="B42">
+        <v>9.2385877053300508E-2</v>
+      </c>
+      <c r="C42">
+        <v>0.63989861382356938</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A43">
+        <v>37</v>
+      </c>
+      <c r="B43">
+        <v>8.4895130265195073E-2</v>
+      </c>
+      <c r="C43">
+        <v>0.72479374408876396</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A44">
+        <v>38</v>
+      </c>
+      <c r="B44">
+        <v>7.372471838819572E-2</v>
+      </c>
+      <c r="C44">
+        <v>0.79851846247696012</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A45">
+        <v>39</v>
+      </c>
+      <c r="B45">
+        <v>6.0492076626211894E-2</v>
+      </c>
+      <c r="C45">
+        <v>0.85901053910317171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A46">
+        <v>40</v>
+      </c>
+      <c r="B46">
+        <v>4.6881359385314139E-2</v>
+      </c>
+      <c r="C46">
+        <v>0.90589189848848606</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A47">
+        <v>41</v>
+      </c>
+      <c r="B47">
+        <v>3.4303433696571364E-2</v>
+      </c>
+      <c r="C47">
+        <v>0.94019533218505735</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A48">
+        <v>42</v>
+      </c>
+      <c r="B48">
+        <v>2.3685704219061209E-2</v>
+      </c>
+      <c r="C48">
+        <v>0.96388103640411871</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A49">
+        <v>43</v>
+      </c>
+      <c r="B49">
+        <v>1.5423249258923537E-2</v>
+      </c>
+      <c r="C49">
+        <v>0.97930428566304228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A50">
+        <v>44</v>
+      </c>
+      <c r="B50">
+        <v>9.4642665907031086E-3</v>
+      </c>
+      <c r="C50">
+        <v>0.98876855225374527</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A51">
+        <v>45</v>
+      </c>
+      <c r="B51">
+        <v>5.4682429190729123E-3</v>
+      </c>
+      <c r="C51">
+        <v>0.99423679517281827</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A52">
+        <v>46</v>
+      </c>
+      <c r="B52">
+        <v>2.971871151670052E-3</v>
+      </c>
+      <c r="C52">
+        <v>0.99720866632448835</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A53">
+        <v>47</v>
+      </c>
+      <c r="B53">
+        <v>1.5175512263847126E-3</v>
+      </c>
+      <c r="C53">
+        <v>0.9987262175508731</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A54">
+        <v>48</v>
+      </c>
+      <c r="B54">
+        <v>7.271599626426724E-4</v>
+      </c>
+      <c r="C54">
+        <v>0.99945337751351571</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A55">
+        <v>49</v>
+      </c>
+      <c r="B55">
+        <v>3.2647998322732379E-4</v>
+      </c>
+      <c r="C55">
+        <v>0.99977985749674303</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A56">
+        <v>50</v>
+      </c>
+      <c r="B56">
+        <v>1.3712159295547541E-4</v>
+      </c>
+      <c r="C56">
+        <v>0.99991697908969845</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A57">
+        <v>51</v>
+      </c>
+      <c r="B57">
+        <v>5.3773173708029577E-5</v>
+      </c>
+      <c r="C57">
+        <v>0.99997075226340648</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A58">
+        <v>52</v>
+      </c>
+      <c r="B58">
+        <v>1.9647890393318551E-5</v>
+      </c>
+      <c r="C58">
+        <v>0.99999040015379981</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A59">
+        <v>53</v>
+      </c>
+      <c r="B59">
+        <v>6.6728684354666703E-6</v>
+      </c>
+      <c r="C59">
+        <v>0.99999707302223528</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A60">
+        <v>54</v>
+      </c>
+      <c r="B60">
+        <v>2.1007178407950581E-6</v>
+      </c>
+      <c r="C60">
+        <v>0.99999917374007607</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A61">
+        <v>55</v>
+      </c>
+      <c r="B61">
+        <v>6.1111791732220016E-7</v>
+      </c>
+      <c r="C61">
+        <v>0.99999978485799335</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A62">
+        <v>56</v>
+      </c>
+      <c r="B62">
+        <v>1.6369229928273095E-7</v>
+      </c>
+      <c r="C62">
+        <v>0.99999994855029273</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A63">
+        <v>57</v>
+      </c>
+      <c r="B63">
+        <v>4.0205126139618342E-8</v>
+      </c>
+      <c r="C63">
+        <v>0.99999998875541884</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A64">
+        <v>58</v>
+      </c>
+      <c r="B64">
+        <v>9.0114937899144538E-9</v>
+      </c>
+      <c r="C64">
+        <v>0.99999999776691262</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A65">
+        <v>59</v>
+      </c>
+      <c r="B65">
+        <v>1.8328461945588799E-9</v>
+      </c>
+      <c r="C65">
+        <v>0.99999999959975883</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A66">
+        <v>60</v>
+      </c>
+      <c r="B66">
+        <v>3.3602180233579525E-10</v>
+      </c>
+      <c r="C66">
+        <v>0.9999999999357807</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A67">
+        <v>61</v>
+      </c>
+      <c r="B67">
+        <v>5.5085541366523398E-11</v>
+      </c>
+      <c r="C67">
+        <v>0.9999999999908662</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A68">
+        <v>62</v>
+      </c>
+      <c r="B68">
+        <v>7.9962882628824618E-12</v>
+      </c>
+      <c r="C68">
+        <v>0.99999999999886247</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A69">
+        <v>63</v>
+      </c>
+      <c r="B69">
+        <v>1.015401684175543E-12</v>
+      </c>
+      <c r="C69">
+        <v>0.99999999999987788</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A70">
+        <v>64</v>
+      </c>
+      <c r="B70">
+        <v>1.1105955920670159E-13</v>
+      </c>
+      <c r="C70">
+        <v>0.9999999999999889</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A71">
+        <v>65</v>
+      </c>
+      <c r="B71">
+        <v>1.0251651619080055E-14</v>
+      </c>
+      <c r="C71">
+        <v>0.99999999999999911</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A72">
+        <v>66</v>
+      </c>
+      <c r="B72">
+        <v>7.766402741727325E-16</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A73">
+        <v>67</v>
+      </c>
+      <c r="B73">
+        <v>4.6366583532700222E-17</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A74">
+        <v>68</v>
+      </c>
+      <c r="B74">
+        <v>2.0455845676191322E-18</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A75">
+        <v>69</v>
+      </c>
+      <c r="B75">
+        <v>5.9292306307801084E-20</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A76" s="6">
+        <v>70</v>
+      </c>
+      <c r="B76" s="6">
+        <v>8.470329472543041E-22</v>
+      </c>
+      <c r="C76" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3712,7 +4838,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DED49A-4829-42B0-BBFB-405747497BEB}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -3726,7 +4852,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="8"/>
@@ -3737,7 +4863,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="5">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -3757,25 +4883,25 @@
         <v>2</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A6" cm="1">
-        <f t="array" ref="A6:A36">_xlfn.SEQUENCE(31,1,0,1)</f>
+        <f t="array" ref="A6:A76">_xlfn.SEQUENCE(71,1,0,1)</f>
         <v>0</v>
       </c>
       <c r="B6" cm="1">
-        <f t="array" ref="B6:B36">_xlfn.BINOM.DIST(A6:A36,B3,D3,FALSE)</f>
-        <v>9.3132257461547934E-10</v>
+        <f t="array" ref="B6:B76">_xlfn.BINOM.DIST(A6:A76,B3,D3,FALSE)</f>
+        <v>8.470329472543041E-22</v>
       </c>
       <c r="C6" cm="1">
-        <f t="array" ref="C6:C36">_xlfn.BINOM.DIST(A6:A36,B3,D3,TRUE)</f>
-        <v>9.3132257461547934E-10</v>
+        <f t="array" ref="C6:C76">_xlfn.BINOM.DIST(A6:A76,B3,D3,TRUE)</f>
+        <v>8.470329472543041E-22</v>
       </c>
       <c r="E6" s="13">
-        <f>1-_xlfn.BINOM.DIST(19,B3,D3,TRUE)</f>
-        <v>4.9368573352694511E-2</v>
+        <f>1-_xlfn.BINOM.DIST(42,B3,D3,TRUE)</f>
+        <v>3.6118963595881293E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.7">
@@ -3783,10 +4909,10 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>2.7939677238464359E-8</v>
+        <v>5.9292306307801084E-20</v>
       </c>
       <c r="C7">
-        <v>2.8870999813079864E-8</v>
+        <v>6.0139339255055408E-20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.7">
@@ -3794,10 +4920,10 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>4.0512531995773342E-7</v>
+        <v>2.0455845676191322E-18</v>
       </c>
       <c r="C8">
-        <v>4.3399631977081267E-7</v>
+        <v>2.1057239068741972E-18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.7">
@@ -3805,10 +4931,10 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>3.781169652938836E-6</v>
+        <v>4.6366583532700222E-17</v>
       </c>
       <c r="C9">
-        <v>4.2151659727096608E-6</v>
+        <v>4.8472307439574807E-17</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.7">
@@ -3816,10 +4942,10 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>2.5522895157337233E-5</v>
+        <v>7.766402741727325E-16</v>
       </c>
       <c r="C10">
-        <v>2.9738061130046844E-5</v>
+        <v>8.2511258161230591E-16</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.7">
@@ -3827,10 +4953,10 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>1.3271905481815344E-4</v>
+        <v>1.0251651619080055E-14</v>
       </c>
       <c r="C11">
-        <v>1.6245711594820044E-4</v>
+        <v>1.1076764200692381E-14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.7">
@@ -3838,10 +4964,10 @@
         <v>6</v>
       </c>
       <c r="B12">
-        <v>5.5299606174230467E-4</v>
+        <v>1.1105955920670159E-13</v>
       </c>
       <c r="C12">
-        <v>7.1545317769050587E-4</v>
+        <v>1.2213632340739335E-13</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.7">
@@ -3849,10 +4975,10 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>1.8959864974021896E-3</v>
+        <v>1.015401684175543E-12</v>
       </c>
       <c r="C13">
-        <v>2.611439675092698E-3</v>
+        <v>1.13753800758294E-12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.7">
@@ -3860,10 +4986,10 @@
         <v>8</v>
       </c>
       <c r="B14">
-        <v>5.4509611800313048E-3</v>
+        <v>7.9962882628824618E-12</v>
       </c>
       <c r="C14">
-        <v>8.0624008551239985E-3</v>
+        <v>9.1338262704653873E-12</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.7">
@@ -3871,10 +4997,10 @@
         <v>9</v>
       </c>
       <c r="B15">
-        <v>1.3324571773409849E-2</v>
+        <v>5.5085541366523398E-11</v>
       </c>
       <c r="C15">
-        <v>2.1386972628533851E-2</v>
+        <v>6.4219367636989044E-11</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.7">
@@ -3882,10 +5008,10 @@
         <v>10</v>
       </c>
       <c r="B16">
-        <v>2.7981600724160692E-2</v>
+        <v>3.3602180233579525E-10</v>
       </c>
       <c r="C16">
-        <v>4.9368573352694511E-2</v>
+        <v>4.0024116997278369E-10</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.7">
@@ -3893,10 +5019,10 @@
         <v>11</v>
       </c>
       <c r="B17">
-        <v>5.0875637680292116E-2</v>
+        <v>1.8328461945588735E-9</v>
       </c>
       <c r="C17">
-        <v>0.10024421103298661</v>
+        <v>2.2330873645316532E-9</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.7">
@@ -3904,10 +5030,10 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>8.0553092993795886E-2</v>
+        <v>9.0114937899144538E-9</v>
       </c>
       <c r="C18">
-        <v>0.18079730402678254</v>
+        <v>1.1244581154446114E-8</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.7">
@@ -3915,10 +5041,10 @@
         <v>13</v>
       </c>
       <c r="B19">
-        <v>0.1115350518375635</v>
+        <v>4.0205126139618415E-8</v>
       </c>
       <c r="C19">
-        <v>0.29233235586434619</v>
+        <v>5.144970729406463E-8</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.7">
@@ -3926,10 +5052,10 @@
         <v>14</v>
       </c>
       <c r="B20">
-        <v>0.13543542008847004</v>
+        <v>1.6369229928273095E-7</v>
       </c>
       <c r="C20">
-        <v>0.42776777595281623</v>
+        <v>2.1514200657679744E-7</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.7">
@@ -3937,10 +5063,10 @@
         <v>15</v>
       </c>
       <c r="B21">
-        <v>0.14446444809436798</v>
+        <v>6.1111791732220016E-7</v>
       </c>
       <c r="C21">
-        <v>0.57223222404718377</v>
+        <v>8.2625992389899516E-7</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.7">
@@ -3948,10 +5074,10 @@
         <v>16</v>
       </c>
       <c r="B22">
-        <v>0.13543542008847004</v>
+        <v>2.1007178407950581E-6</v>
       </c>
       <c r="C22">
-        <v>0.70766764413565375</v>
+        <v>2.9269777646940583E-6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.7">
@@ -3959,10 +5085,10 @@
         <v>17</v>
       </c>
       <c r="B23">
-        <v>0.1115350518375635</v>
+        <v>6.6728684354666703E-6</v>
       </c>
       <c r="C23">
-        <v>0.81920269597321749</v>
+        <v>9.5998462001607379E-6</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.7">
@@ -3970,10 +5096,10 @@
         <v>18</v>
       </c>
       <c r="B24">
-        <v>8.0553092993795886E-2</v>
+        <v>1.9647890393318588E-5</v>
       </c>
       <c r="C24">
-        <v>0.89975578896701336</v>
+        <v>2.9247736593479357E-5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.7">
@@ -3981,10 +5107,10 @@
         <v>19</v>
       </c>
       <c r="B25">
-        <v>5.0875637680292116E-2</v>
+        <v>5.3773173708029584E-5</v>
       </c>
       <c r="C25">
-        <v>0.95063142664730549</v>
+        <v>8.3020910301508747E-5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.7">
@@ -3992,10 +5118,10 @@
         <v>20</v>
       </c>
       <c r="B26">
-        <v>2.7981600724160689E-2</v>
+        <v>1.3712159295547541E-4</v>
       </c>
       <c r="C26">
-        <v>0.97861302737146616</v>
+        <v>2.2014250325698439E-4</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.7">
@@ -4003,10 +5129,10 @@
         <v>21</v>
       </c>
       <c r="B27">
-        <v>1.3324571773409843E-2</v>
+        <v>3.2647998322732379E-4</v>
       </c>
       <c r="C27">
-        <v>0.991937599144876</v>
+        <v>5.466224864843081E-4</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.7">
@@ -4014,10 +5140,10 @@
         <v>22</v>
       </c>
       <c r="B28">
-        <v>5.4509611800313022E-3</v>
+        <v>7.271599626426724E-4</v>
       </c>
       <c r="C28">
-        <v>0.9973885603249073</v>
+        <v>1.2737824491269774E-3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.7">
@@ -4025,10 +5151,10 @@
         <v>23</v>
       </c>
       <c r="B29">
-        <v>1.8959864974021896E-3</v>
+        <v>1.5175512263847126E-3</v>
       </c>
       <c r="C29">
-        <v>0.99928454682230949</v>
+        <v>2.7913336755116844E-3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.7">
@@ -4036,10 +5162,10 @@
         <v>24</v>
       </c>
       <c r="B30">
-        <v>5.5299606174230467E-4</v>
+        <v>2.9718711516700533E-3</v>
       </c>
       <c r="C30">
-        <v>0.9998375428840518</v>
+        <v>5.7632048271817485E-3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.7">
@@ -4047,10 +5173,10 @@
         <v>25</v>
       </c>
       <c r="B31">
-        <v>1.3271905481815344E-4</v>
+        <v>5.4682429190729123E-3</v>
       </c>
       <c r="C31">
-        <v>0.99997026193886995</v>
+        <v>1.123144774625465E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.7">
@@ -4058,10 +5184,10 @@
         <v>26</v>
       </c>
       <c r="B32">
-        <v>2.5522895157337233E-5</v>
+        <v>9.4642665907031086E-3</v>
       </c>
       <c r="C32">
-        <v>0.99999578483402729</v>
+        <v>2.0695714336957747E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.7">
@@ -4069,10 +5195,10 @@
         <v>27</v>
       </c>
       <c r="B33">
-        <v>3.781169652938836E-6</v>
+        <v>1.5423249258923537E-2</v>
       </c>
       <c r="C33">
-        <v>0.99999956600368023</v>
+        <v>3.6118963595881307E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.7">
@@ -4080,10 +5206,10 @@
         <v>28</v>
       </c>
       <c r="B34">
-        <v>4.0512531995773411E-7</v>
+        <v>2.3685704219061209E-2</v>
       </c>
       <c r="C34">
-        <v>0.99999997112900019</v>
+        <v>5.9804667814942584E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.7">
@@ -4091,20 +5217,460 @@
         <v>29</v>
       </c>
       <c r="B35">
-        <v>2.7939677238464359E-8</v>
+        <v>3.4303433696571364E-2</v>
       </c>
       <c r="C35">
-        <v>0.99999999906867743</v>
+        <v>9.4108101511513872E-2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A36" s="6">
+      <c r="A36">
         <v>30</v>
       </c>
-      <c r="B36" s="6">
-        <v>9.3132257461547934E-10</v>
-      </c>
-      <c r="C36" s="6">
+      <c r="B36">
+        <v>4.6881359385314139E-2</v>
+      </c>
+      <c r="C36">
+        <v>0.14098946089682829</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A37">
+        <v>31</v>
+      </c>
+      <c r="B37">
+        <v>6.0492076626211894E-2</v>
+      </c>
+      <c r="C37">
+        <v>0.20148153752303988</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A38">
+        <v>32</v>
+      </c>
+      <c r="B38">
+        <v>7.372471838819572E-2</v>
+      </c>
+      <c r="C38">
+        <v>0.27520625591123604</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A39">
+        <v>33</v>
+      </c>
+      <c r="B39">
+        <v>8.4895130265195073E-2</v>
+      </c>
+      <c r="C39">
+        <v>0.36010138617643062</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A40">
+        <v>34</v>
+      </c>
+      <c r="B40">
+        <v>9.2385877053300508E-2</v>
+      </c>
+      <c r="C40">
+        <v>0.45248726322973204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A41">
+        <v>35</v>
+      </c>
+      <c r="B41">
+        <v>9.5025473540537697E-2</v>
+      </c>
+      <c r="C41">
+        <v>0.5475127367702679</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A42">
+        <v>36</v>
+      </c>
+      <c r="B42">
+        <v>9.2385877053300508E-2</v>
+      </c>
+      <c r="C42">
+        <v>0.63989861382356938</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A43">
+        <v>37</v>
+      </c>
+      <c r="B43">
+        <v>8.4895130265195073E-2</v>
+      </c>
+      <c r="C43">
+        <v>0.72479374408876396</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A44">
+        <v>38</v>
+      </c>
+      <c r="B44">
+        <v>7.372471838819572E-2</v>
+      </c>
+      <c r="C44">
+        <v>0.79851846247696012</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A45">
+        <v>39</v>
+      </c>
+      <c r="B45">
+        <v>6.0492076626211894E-2</v>
+      </c>
+      <c r="C45">
+        <v>0.85901053910317171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A46">
+        <v>40</v>
+      </c>
+      <c r="B46">
+        <v>4.6881359385314139E-2</v>
+      </c>
+      <c r="C46">
+        <v>0.90589189848848606</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A47">
+        <v>41</v>
+      </c>
+      <c r="B47">
+        <v>3.4303433696571364E-2</v>
+      </c>
+      <c r="C47">
+        <v>0.94019533218505735</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A48">
+        <v>42</v>
+      </c>
+      <c r="B48">
+        <v>2.3685704219061209E-2</v>
+      </c>
+      <c r="C48">
+        <v>0.96388103640411871</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A49">
+        <v>43</v>
+      </c>
+      <c r="B49">
+        <v>1.5423249258923537E-2</v>
+      </c>
+      <c r="C49">
+        <v>0.97930428566304228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A50">
+        <v>44</v>
+      </c>
+      <c r="B50">
+        <v>9.4642665907031086E-3</v>
+      </c>
+      <c r="C50">
+        <v>0.98876855225374527</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A51">
+        <v>45</v>
+      </c>
+      <c r="B51">
+        <v>5.4682429190729123E-3</v>
+      </c>
+      <c r="C51">
+        <v>0.99423679517281827</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A52">
+        <v>46</v>
+      </c>
+      <c r="B52">
+        <v>2.971871151670052E-3</v>
+      </c>
+      <c r="C52">
+        <v>0.99720866632448835</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A53">
+        <v>47</v>
+      </c>
+      <c r="B53">
+        <v>1.5175512263847126E-3</v>
+      </c>
+      <c r="C53">
+        <v>0.9987262175508731</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A54">
+        <v>48</v>
+      </c>
+      <c r="B54">
+        <v>7.271599626426724E-4</v>
+      </c>
+      <c r="C54">
+        <v>0.99945337751351571</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A55">
+        <v>49</v>
+      </c>
+      <c r="B55">
+        <v>3.2647998322732379E-4</v>
+      </c>
+      <c r="C55">
+        <v>0.99977985749674303</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A56">
+        <v>50</v>
+      </c>
+      <c r="B56">
+        <v>1.3712159295547541E-4</v>
+      </c>
+      <c r="C56">
+        <v>0.99991697908969845</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A57">
+        <v>51</v>
+      </c>
+      <c r="B57">
+        <v>5.3773173708029577E-5</v>
+      </c>
+      <c r="C57">
+        <v>0.99997075226340648</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A58">
+        <v>52</v>
+      </c>
+      <c r="B58">
+        <v>1.9647890393318551E-5</v>
+      </c>
+      <c r="C58">
+        <v>0.99999040015379981</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A59">
+        <v>53</v>
+      </c>
+      <c r="B59">
+        <v>6.6728684354666703E-6</v>
+      </c>
+      <c r="C59">
+        <v>0.99999707302223528</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A60">
+        <v>54</v>
+      </c>
+      <c r="B60">
+        <v>2.1007178407950581E-6</v>
+      </c>
+      <c r="C60">
+        <v>0.99999917374007607</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A61">
+        <v>55</v>
+      </c>
+      <c r="B61">
+        <v>6.1111791732220016E-7</v>
+      </c>
+      <c r="C61">
+        <v>0.99999978485799335</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A62">
+        <v>56</v>
+      </c>
+      <c r="B62">
+        <v>1.6369229928273095E-7</v>
+      </c>
+      <c r="C62">
+        <v>0.99999994855029273</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A63">
+        <v>57</v>
+      </c>
+      <c r="B63">
+        <v>4.0205126139618342E-8</v>
+      </c>
+      <c r="C63">
+        <v>0.99999998875541884</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A64">
+        <v>58</v>
+      </c>
+      <c r="B64">
+        <v>9.0114937899144538E-9</v>
+      </c>
+      <c r="C64">
+        <v>0.99999999776691262</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A65">
+        <v>59</v>
+      </c>
+      <c r="B65">
+        <v>1.8328461945588799E-9</v>
+      </c>
+      <c r="C65">
+        <v>0.99999999959975883</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A66">
+        <v>60</v>
+      </c>
+      <c r="B66">
+        <v>3.3602180233579525E-10</v>
+      </c>
+      <c r="C66">
+        <v>0.9999999999357807</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A67">
+        <v>61</v>
+      </c>
+      <c r="B67">
+        <v>5.5085541366523398E-11</v>
+      </c>
+      <c r="C67">
+        <v>0.9999999999908662</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A68">
+        <v>62</v>
+      </c>
+      <c r="B68">
+        <v>7.9962882628824618E-12</v>
+      </c>
+      <c r="C68">
+        <v>0.99999999999886247</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A69">
+        <v>63</v>
+      </c>
+      <c r="B69">
+        <v>1.015401684175543E-12</v>
+      </c>
+      <c r="C69">
+        <v>0.99999999999987788</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A70">
+        <v>64</v>
+      </c>
+      <c r="B70">
+        <v>1.1105955920670159E-13</v>
+      </c>
+      <c r="C70">
+        <v>0.9999999999999889</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A71">
+        <v>65</v>
+      </c>
+      <c r="B71">
+        <v>1.0251651619080055E-14</v>
+      </c>
+      <c r="C71">
+        <v>0.99999999999999911</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A72">
+        <v>66</v>
+      </c>
+      <c r="B72">
+        <v>7.766402741727325E-16</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A73">
+        <v>67</v>
+      </c>
+      <c r="B73">
+        <v>4.6366583532700222E-17</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A74">
+        <v>68</v>
+      </c>
+      <c r="B74">
+        <v>2.0455845676191322E-18</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A75">
+        <v>69</v>
+      </c>
+      <c r="B75">
+        <v>5.9292306307801084E-20</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A76" s="6">
+        <v>70</v>
+      </c>
+      <c r="B76" s="6">
+        <v>8.470329472543041E-22</v>
+      </c>
+      <c r="C76" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4130,7 +5696,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4139,43 +5705,43 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.7">
       <c r="A4" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.7">
       <c r="A5" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A6" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="12"/>
       <c r="D6" s="10" t="s">
@@ -4185,7 +5751,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A7" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>0.05</v>
@@ -4193,7 +5759,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A8" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="6">
         <v>0.8</v>
@@ -4207,7 +5773,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BCA5D8-759E-430C-9BDA-DA301888E9BA}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -4220,7 +5786,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4229,27 +5795,27 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.7">
       <c r="A4" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <f>_xlfn.NORM.S.INV(1-B7)</f>
@@ -4258,13 +5824,13 @@
     </row>
     <row r="5" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.7">
       <c r="A5" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <f>_xlfn.NORM.S.INV(B8)</f>
@@ -4273,23 +5839,23 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A6" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="12">
         <f>2*ASIN(SQRT(B5))-2*ASIN(SQRT(B4))</f>
-        <v>0.41151684606748784</v>
+        <v>0.30469265401539758</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="6">
         <f>ROUNDUP(((E4+E5)/B6)^2,0)</f>
-        <v>37</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A7" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>0.05</v>
@@ -4297,7 +5863,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A8" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="6">
         <v>0.8</v>
@@ -4305,13 +5871,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A10" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="15"/>
     </row>
     <row r="11" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.7">
       <c r="A11" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>0.5</v>
@@ -4319,29 +5885,20 @@
     </row>
     <row r="12" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.7">
       <c r="A12" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="11">
-        <f>20/30</f>
-        <v>0.66666666666666663</v>
+        <f>43/70</f>
+        <v>0.61428571428571432</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.7">
-      <c r="A13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="11">
+      <c r="A13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="14">
         <f>2*ASIN(SQRT(B12))-2*ASIN(SQRT(B11))</f>
-        <v>0.33983690945412182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.7">
-      <c r="A14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="14">
-        <f>1-_xlfn.BINOM.DIST(19,30,B12,TRUE)</f>
-        <v>0.58475959877100958</v>
+        <v>0.23061001128611314</v>
       </c>
     </row>
   </sheetData>
